--- a/Lab/2lab/Значения.xlsx
+++ b/Lab/2lab/Значения.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Egor\Programming\CFU\Lab\2lab - не сделано\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Egor\Programming\CFU\Lab\2lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7281878F-79F5-402A-9B0E-3F994DBDE9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52701CA6-4308-49FB-B48F-424996139BD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>-0.617499</t>
   </si>
   <si>
-    <t>-0.229776</t>
-  </si>
-  <si>
     <t>-0.196095</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>1.5</t>
+  </si>
+  <si>
+    <t>-0.469967</t>
   </si>
 </sst>
 </file>
@@ -481,188 +481,188 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection activeCell="A2" sqref="A2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.08984375" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
         <v>27</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
